--- a/JupyterNotebooks/AveragedIntensites/SA-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/SA-HW15.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="SA-HW15.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="SA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>HKL</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1069,7 +1069,7 @@
         <v>0.9980745354850442</v>
       </c>
       <c r="D13">
-        <v>0.9973347867715999</v>
+        <v>0.9973347867715998</v>
       </c>
       <c r="E13">
         <v>0.9915982613669191</v>
@@ -1081,7 +1081,7 @@
         <v>0.9980745354850442</v>
       </c>
       <c r="H13">
-        <v>0.9973347867715999</v>
+        <v>0.9973347867715998</v>
       </c>
       <c r="I13">
         <v>0.9938017755717267</v>
@@ -1090,7 +1090,7 @@
         <v>0.9936029802537252</v>
       </c>
       <c r="K13">
-        <v>0.9955507390570453</v>
+        <v>0.9955507390570452</v>
       </c>
       <c r="L13">
         <v>0.9937093215888532</v>
@@ -1099,7 +1099,7 @@
         <v>0.9980241486366752</v>
       </c>
       <c r="N13">
-        <v>0.9944665240692595</v>
+        <v>0.9944665240692594</v>
       </c>
       <c r="O13">
         <v>0.9951186803296052</v>
@@ -1166,7 +1166,7 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9372133604321337</v>
+        <v>0.9372133604321332</v>
       </c>
       <c r="D15">
         <v>1.07007966028594</v>
@@ -1178,7 +1178,7 @@
         <v>1.016354903315884</v>
       </c>
       <c r="G15">
-        <v>0.9372133604321337</v>
+        <v>0.9372133604321332</v>
       </c>
       <c r="H15">
         <v>1.07007966028594</v>
@@ -1196,16 +1196,66 @@
         <v>1.05229287502603</v>
       </c>
       <c r="M15">
-        <v>0.9371583660735143</v>
+        <v>0.9371583660735142</v>
       </c>
       <c r="N15">
         <v>1.020555927259136</v>
       </c>
       <c r="O15">
-        <v>0.9986700295665725</v>
+        <v>0.9986700295665724</v>
       </c>
       <c r="P15">
         <v>0.9991871963527847</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.10314550960926</v>
+      </c>
+      <c r="D16">
+        <v>0.8481667350877083</v>
+      </c>
+      <c r="E16">
+        <v>1.027015663102508</v>
+      </c>
+      <c r="F16">
+        <v>0.9440817023415943</v>
+      </c>
+      <c r="G16">
+        <v>1.10314550960926</v>
+      </c>
+      <c r="H16">
+        <v>0.8481667350877083</v>
+      </c>
+      <c r="I16">
+        <v>1.082398467621259</v>
+      </c>
+      <c r="J16">
+        <v>0.935262215100173</v>
+      </c>
+      <c r="K16">
+        <v>1.049690506732624</v>
+      </c>
+      <c r="L16">
+        <v>0.8793947169436527</v>
+      </c>
+      <c r="M16">
+        <v>1.10314550960926</v>
+      </c>
+      <c r="N16">
+        <v>0.937591199095108</v>
+      </c>
+      <c r="O16">
+        <v>0.9806024025352675</v>
+      </c>
+      <c r="P16">
+        <v>0.9836444395673473</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/SA-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/SA-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -516,46 +519,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1213,7 +1216,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.10314550960926</v>

--- a/JupyterNotebooks/AveragedIntensites/SA-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/SA-HW15.xlsx
@@ -1072,7 +1072,7 @@
         <v>0.9980745354850442</v>
       </c>
       <c r="D13">
-        <v>0.9973347867715998</v>
+        <v>0.9973347867715999</v>
       </c>
       <c r="E13">
         <v>0.9915982613669191</v>
@@ -1084,7 +1084,7 @@
         <v>0.9980745354850442</v>
       </c>
       <c r="H13">
-        <v>0.9973347867715998</v>
+        <v>0.9973347867715999</v>
       </c>
       <c r="I13">
         <v>0.9938017755717267</v>
@@ -1093,7 +1093,7 @@
         <v>0.9936029802537252</v>
       </c>
       <c r="K13">
-        <v>0.9955507390570452</v>
+        <v>0.9955507390570453</v>
       </c>
       <c r="L13">
         <v>0.9937093215888532</v>
@@ -1102,7 +1102,7 @@
         <v>0.9980241486366752</v>
       </c>
       <c r="N13">
-        <v>0.9944665240692594</v>
+        <v>0.9944665240692595</v>
       </c>
       <c r="O13">
         <v>0.9951186803296052</v>
@@ -1169,7 +1169,7 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9372133604321332</v>
+        <v>0.9372133604321337</v>
       </c>
       <c r="D15">
         <v>1.07007966028594</v>
@@ -1181,7 +1181,7 @@
         <v>1.016354903315884</v>
       </c>
       <c r="G15">
-        <v>0.9372133604321332</v>
+        <v>0.9372133604321337</v>
       </c>
       <c r="H15">
         <v>1.07007966028594</v>
@@ -1199,13 +1199,13 @@
         <v>1.05229287502603</v>
       </c>
       <c r="M15">
-        <v>0.9371583660735142</v>
+        <v>0.9371583660735143</v>
       </c>
       <c r="N15">
         <v>1.020555927259136</v>
       </c>
       <c r="O15">
-        <v>0.9986700295665724</v>
+        <v>0.9986700295665725</v>
       </c>
       <c r="P15">
         <v>0.9991871963527847</v>

--- a/JupyterNotebooks/AveragedIntensites/SA-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/SA-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -458,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,46 +528,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -919,46 +928,46 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.8814239999999989</v>
+        <v>1.10314550960926</v>
       </c>
       <c r="D10">
-        <v>0.2400239999999999</v>
+        <v>0.8481667350877083</v>
       </c>
       <c r="E10">
-        <v>1.296208</v>
+        <v>1.027015663102508</v>
       </c>
       <c r="F10">
-        <v>0.9306039999999993</v>
+        <v>0.9440817023415943</v>
       </c>
       <c r="G10">
-        <v>0.8814239999999989</v>
+        <v>1.10314550960926</v>
       </c>
       <c r="H10">
-        <v>0.2400239999999999</v>
+        <v>0.8481667350877083</v>
       </c>
       <c r="I10">
-        <v>1.271412</v>
+        <v>1.082398467621259</v>
       </c>
       <c r="J10">
-        <v>0.9706159999999998</v>
+        <v>0.935262215100173</v>
       </c>
       <c r="K10">
-        <v>1.147076000000002</v>
+        <v>1.049690506732624</v>
       </c>
       <c r="L10">
-        <v>0.5916480000000007</v>
+        <v>0.8793947169436527</v>
       </c>
       <c r="M10">
-        <v>0.8814239999999989</v>
+        <v>1.10314550960926</v>
       </c>
       <c r="N10">
-        <v>0.7681159999999999</v>
+        <v>0.937591199095108</v>
       </c>
       <c r="O10">
-        <v>0.8370649999999995</v>
+        <v>0.9806024025352675</v>
       </c>
       <c r="P10">
-        <v>0.9161265000000001</v>
+        <v>0.9836444395673473</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -969,46 +978,46 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.13</v>
+        <v>1.126615508567993</v>
       </c>
       <c r="D11">
-        <v>0.11</v>
+        <v>0.3497004224988066</v>
       </c>
       <c r="E11">
-        <v>1.1262625</v>
+        <v>1.274606331195996</v>
       </c>
       <c r="F11">
-        <v>0.9</v>
+        <v>0.8887271619452218</v>
       </c>
       <c r="G11">
-        <v>1.13</v>
+        <v>1.126615508567993</v>
       </c>
       <c r="H11">
-        <v>0.11</v>
+        <v>0.3497004224988066</v>
       </c>
       <c r="I11">
-        <v>1.328899999999999</v>
+        <v>1.193980764035773</v>
       </c>
       <c r="J11">
-        <v>0.8179249999999992</v>
+        <v>1.016739032544528</v>
       </c>
       <c r="K11">
-        <v>1.319862499999999</v>
+        <v>1.038819822063034</v>
       </c>
       <c r="L11">
-        <v>0.48</v>
+        <v>0.6401550160959827</v>
       </c>
       <c r="M11">
-        <v>1.13</v>
+        <v>1.126615508567993</v>
       </c>
       <c r="N11">
-        <v>0.6181312499999998</v>
+        <v>0.8121533768474014</v>
       </c>
       <c r="O11">
-        <v>0.8165656249999999</v>
+        <v>0.9099123560520045</v>
       </c>
       <c r="P11">
-        <v>0.9016187499999997</v>
+        <v>0.941168007368417</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1019,46 +1028,46 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.084475836620798</v>
+        <v>1.124196907945903</v>
       </c>
       <c r="D12">
-        <v>0.4740141007872001</v>
+        <v>0.3504775635490783</v>
       </c>
       <c r="E12">
-        <v>1.075596658585601</v>
+        <v>1.275753607350152</v>
       </c>
       <c r="F12">
-        <v>0.9400360232960002</v>
+        <v>0.889266069322641</v>
       </c>
       <c r="G12">
-        <v>1.084475836620798</v>
+        <v>1.124196907945903</v>
       </c>
       <c r="H12">
-        <v>0.4740141007872001</v>
+        <v>0.3504775635490783</v>
       </c>
       <c r="I12">
-        <v>1.185154126540801</v>
+        <v>1.193313677737774</v>
       </c>
       <c r="J12">
-        <v>0.8939525670912029</v>
+        <v>1.017966690229055</v>
       </c>
       <c r="K12">
-        <v>1.179934218035201</v>
+        <v>1.037759581630161</v>
       </c>
       <c r="L12">
-        <v>0.6955616034816011</v>
+        <v>0.6410600240687608</v>
       </c>
       <c r="M12">
-        <v>1.084465609523198</v>
+        <v>1.124196907945903</v>
       </c>
       <c r="N12">
-        <v>0.7748053796864004</v>
+        <v>0.8131155854496153</v>
       </c>
       <c r="O12">
-        <v>0.8935306548223997</v>
+        <v>0.9099235370419436</v>
       </c>
       <c r="P12">
-        <v>0.9410906418048006</v>
+        <v>0.9412242652291907</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1069,46 +1078,46 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9980745354850442</v>
+        <v>1.125472797577297</v>
       </c>
       <c r="D13">
-        <v>0.9973347867715999</v>
+        <v>0.3497114748388776</v>
       </c>
       <c r="E13">
-        <v>0.9915982613669191</v>
+        <v>1.275541256575883</v>
       </c>
       <c r="F13">
-        <v>0.9934671376948577</v>
+        <v>0.8888756166090207</v>
       </c>
       <c r="G13">
-        <v>0.9980745354850442</v>
+        <v>1.125472797577297</v>
       </c>
       <c r="H13">
-        <v>0.9973347867715999</v>
+        <v>0.3497114748388776</v>
       </c>
       <c r="I13">
-        <v>0.9938017755717267</v>
+        <v>1.194064283202235</v>
       </c>
       <c r="J13">
-        <v>0.9936029802537252</v>
+        <v>1.017030792642782</v>
       </c>
       <c r="K13">
-        <v>0.9955507390570453</v>
+        <v>1.038424546667062</v>
       </c>
       <c r="L13">
-        <v>0.9937093215888532</v>
+        <v>0.6401844116989774</v>
       </c>
       <c r="M13">
-        <v>0.9980241486366752</v>
+        <v>1.125472797577297</v>
       </c>
       <c r="N13">
-        <v>0.9944665240692595</v>
+        <v>0.8126263657073802</v>
       </c>
       <c r="O13">
-        <v>0.9951186803296052</v>
+        <v>0.9099002864002697</v>
       </c>
       <c r="P13">
-        <v>0.9946424422237214</v>
+        <v>0.9411631474765169</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1119,46 +1128,46 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9484412587794685</v>
+        <v>0.8814239999999989</v>
       </c>
       <c r="D14">
-        <v>1.006184324442406</v>
+        <v>0.2400239999999999</v>
       </c>
       <c r="E14">
-        <v>0.9995985639367624</v>
+        <v>1.296208</v>
       </c>
       <c r="F14">
-        <v>0.9948145842749687</v>
+        <v>0.9306039999999993</v>
       </c>
       <c r="G14">
-        <v>0.9484412587794685</v>
+        <v>0.8814239999999989</v>
       </c>
       <c r="H14">
-        <v>1.006184324442406</v>
+        <v>0.2400239999999999</v>
       </c>
       <c r="I14">
-        <v>0.9836596966595536</v>
+        <v>1.271412</v>
       </c>
       <c r="J14">
-        <v>1.023917428952179</v>
+        <v>0.9706159999999998</v>
       </c>
       <c r="K14">
-        <v>0.9864931384093216</v>
+        <v>1.147076000000002</v>
       </c>
       <c r="L14">
-        <v>0.9969296902331709</v>
+        <v>0.5916480000000007</v>
       </c>
       <c r="M14">
-        <v>0.9484412587794685</v>
+        <v>0.8814239999999989</v>
       </c>
       <c r="N14">
-        <v>1.002891444189584</v>
+        <v>0.7681159999999999</v>
       </c>
       <c r="O14">
-        <v>0.9872596828584015</v>
+        <v>0.8370649999999995</v>
       </c>
       <c r="P14">
-        <v>0.9925048357109789</v>
+        <v>0.9161265000000001</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1169,46 +1178,46 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9372133604321337</v>
+        <v>1.13</v>
       </c>
       <c r="D15">
-        <v>1.07007966028594</v>
+        <v>0.11</v>
       </c>
       <c r="E15">
-        <v>0.9710321942323327</v>
+        <v>1.1262625</v>
       </c>
       <c r="F15">
-        <v>1.016354903315884</v>
+        <v>0.9</v>
       </c>
       <c r="G15">
-        <v>0.9372133604321337</v>
+        <v>1.13</v>
       </c>
       <c r="H15">
-        <v>1.07007966028594</v>
+        <v>0.11</v>
       </c>
       <c r="I15">
-        <v>0.9561732095600141</v>
+        <v>1.328899999999999</v>
       </c>
       <c r="J15">
-        <v>1.016216939598613</v>
+        <v>0.8179249999999992</v>
       </c>
       <c r="K15">
-        <v>0.9741344283713317</v>
+        <v>1.319862499999999</v>
       </c>
       <c r="L15">
-        <v>1.05229287502603</v>
+        <v>0.48</v>
       </c>
       <c r="M15">
-        <v>0.9371583660735143</v>
+        <v>1.13</v>
       </c>
       <c r="N15">
-        <v>1.020555927259136</v>
+        <v>0.6181312499999998</v>
       </c>
       <c r="O15">
-        <v>0.9986700295665725</v>
+        <v>0.8165656249999999</v>
       </c>
       <c r="P15">
-        <v>0.9991871963527847</v>
+        <v>0.9016187499999997</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1219,46 +1228,196 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.10314550960926</v>
+        <v>1.084475836620798</v>
       </c>
       <c r="D16">
-        <v>0.8481667350877083</v>
+        <v>0.4740141007872001</v>
       </c>
       <c r="E16">
-        <v>1.027015663102508</v>
+        <v>1.075596658585601</v>
       </c>
       <c r="F16">
-        <v>0.9440817023415943</v>
+        <v>0.9400360232960002</v>
       </c>
       <c r="G16">
-        <v>1.10314550960926</v>
+        <v>1.084475836620798</v>
       </c>
       <c r="H16">
-        <v>0.8481667350877083</v>
+        <v>0.4740141007872001</v>
       </c>
       <c r="I16">
-        <v>1.082398467621259</v>
+        <v>1.185154126540801</v>
       </c>
       <c r="J16">
-        <v>0.935262215100173</v>
+        <v>0.8939525670912029</v>
       </c>
       <c r="K16">
-        <v>1.049690506732624</v>
+        <v>1.179934218035201</v>
       </c>
       <c r="L16">
-        <v>0.8793947169436527</v>
+        <v>0.6955616034816011</v>
       </c>
       <c r="M16">
-        <v>1.10314550960926</v>
+        <v>1.084465609523198</v>
       </c>
       <c r="N16">
-        <v>0.937591199095108</v>
+        <v>0.7748053796864004</v>
       </c>
       <c r="O16">
-        <v>0.9806024025352675</v>
+        <v>0.8935306548223997</v>
       </c>
       <c r="P16">
-        <v>0.9836444395673473</v>
+        <v>0.9410906418048006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9980745354850442</v>
+      </c>
+      <c r="D17">
+        <v>0.9973347867715998</v>
+      </c>
+      <c r="E17">
+        <v>0.9915982613669191</v>
+      </c>
+      <c r="F17">
+        <v>0.9934671376948577</v>
+      </c>
+      <c r="G17">
+        <v>0.9980745354850442</v>
+      </c>
+      <c r="H17">
+        <v>0.9973347867715998</v>
+      </c>
+      <c r="I17">
+        <v>0.9938017755717267</v>
+      </c>
+      <c r="J17">
+        <v>0.9936029802537252</v>
+      </c>
+      <c r="K17">
+        <v>0.9955507390570452</v>
+      </c>
+      <c r="L17">
+        <v>0.9937093215888532</v>
+      </c>
+      <c r="M17">
+        <v>0.9980241486366752</v>
+      </c>
+      <c r="N17">
+        <v>0.9944665240692594</v>
+      </c>
+      <c r="O17">
+        <v>0.9951186803296052</v>
+      </c>
+      <c r="P17">
+        <v>0.9946424422237214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.9484412587794685</v>
+      </c>
+      <c r="D18">
+        <v>1.006184324442406</v>
+      </c>
+      <c r="E18">
+        <v>0.9995985639367624</v>
+      </c>
+      <c r="F18">
+        <v>0.9948145842749687</v>
+      </c>
+      <c r="G18">
+        <v>0.9484412587794685</v>
+      </c>
+      <c r="H18">
+        <v>1.006184324442406</v>
+      </c>
+      <c r="I18">
+        <v>0.9836596966595536</v>
+      </c>
+      <c r="J18">
+        <v>1.023917428952179</v>
+      </c>
+      <c r="K18">
+        <v>0.9864931384093216</v>
+      </c>
+      <c r="L18">
+        <v>0.9969296902331709</v>
+      </c>
+      <c r="M18">
+        <v>0.9484412587794685</v>
+      </c>
+      <c r="N18">
+        <v>1.002891444189584</v>
+      </c>
+      <c r="O18">
+        <v>0.9872596828584015</v>
+      </c>
+      <c r="P18">
+        <v>0.9925048357109789</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9372133604321332</v>
+      </c>
+      <c r="D19">
+        <v>1.07007966028594</v>
+      </c>
+      <c r="E19">
+        <v>0.9710321942323327</v>
+      </c>
+      <c r="F19">
+        <v>1.016354903315884</v>
+      </c>
+      <c r="G19">
+        <v>0.9372133604321332</v>
+      </c>
+      <c r="H19">
+        <v>1.07007966028594</v>
+      </c>
+      <c r="I19">
+        <v>0.9561732095600141</v>
+      </c>
+      <c r="J19">
+        <v>1.016216939598613</v>
+      </c>
+      <c r="K19">
+        <v>0.9741344283713317</v>
+      </c>
+      <c r="L19">
+        <v>1.05229287502603</v>
+      </c>
+      <c r="M19">
+        <v>0.9371583660735142</v>
+      </c>
+      <c r="N19">
+        <v>1.020555927259136</v>
+      </c>
+      <c r="O19">
+        <v>0.9986700295665724</v>
+      </c>
+      <c r="P19">
+        <v>0.9991871963527847</v>
       </c>
     </row>
   </sheetData>
